--- a/biology/Médecine/Sarcome_myéloïde/Sarcome_myéloïde.xlsx
+++ b/biology/Médecine/Sarcome_myéloïde/Sarcome_myéloïde.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sarcome_my%C3%A9lo%C3%AFde</t>
+          <t>Sarcome_myéloïde</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le sarcome myéloïde (parfois appelé sarcome granulocytaire ou chlorome[1]) est une forme rare de cancer caractérisée par une tumeur solide de cellules myéloïdes et localisée hors de la moelle osseuse[2]. Cette hémopathie est intégrée dans la classification OMS 2016 des leucémies aiguës myéloïdes et néoplasies liées[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le sarcome myéloïde (parfois appelé sarcome granulocytaire ou chlorome) est une forme rare de cancer caractérisée par une tumeur solide de cellules myéloïdes et localisée hors de la moelle osseuse. Cette hémopathie est intégrée dans la classification OMS 2016 des leucémies aiguës myéloïdes et néoplasies liées.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sarcome_my%C3%A9lo%C3%AFde</t>
+          <t>Sarcome_myéloïde</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Présentation clinique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les symptômes dépendent de la localisation anatomique: foie[4], prostate[5]. 
-Il souvent associé à une leucémie aiguë myéloïde[5],[6]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les symptômes dépendent de la localisation anatomique: foie, prostate. 
+Il souvent associé à une leucémie aiguë myéloïde,. 
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sarcome_my%C3%A9lo%C3%AFde</t>
+          <t>Sarcome_myéloïde</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Diagnostic</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le diagnostic associe l'imagerie médicale (scanner, TEP) et l'étude de la biopsie en l'anatomopathologie.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sarcome_my%C3%A9lo%C3%AFde</t>
+          <t>Sarcome_myéloïde</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,9 +590,11 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le sarcome myéloïde peut être traité par chimiothérapie en même temps qu'une leucémie concomitante mais peut également être accessible à la chirurgie ou la radiothérapie[7].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le sarcome myéloïde peut être traité par chimiothérapie en même temps qu'une leucémie concomitante mais peut également être accessible à la chirurgie ou la radiothérapie.
 </t>
         </is>
       </c>
